--- a/logs/2024/Based on a True Story_ A Memoir - Norm Macdonald.xlsx
+++ b/logs/2024/Based on a True Story_ A Memoir - Norm Macdonald.xlsx
@@ -430,7 +430,7 @@
         <v>45433</v>
       </c>
       <c r="B1" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45434</v>
       </c>
       <c r="B2" t="n">
-        <v>356</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45435</v>
       </c>
       <c r="B3" t="n">
-        <v>612</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45437</v>
       </c>
       <c r="B4" t="n">
-        <v>855</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
